--- a/策划案/镇魂街/产销关系总结.xlsx
+++ b/策划案/镇魂街/产销关系总结.xlsx
@@ -4,18 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="产销梳理" sheetId="42" r:id="rId2"/>
     <sheet name="关键兴奋点设计" sheetId="43" r:id="rId3"/>
-    <sheet name="主线任务" sheetId="44" r:id="rId4"/>
-    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId5"/>
+    <sheet name="关卡思路" sheetId="36" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="卡牌类型名" localSheetId="2">#REF!</definedName>
     <definedName name="卡牌类型名">#REF!</definedName>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="280">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1171,480 +1167,6 @@
   <si>
     <t>第1天-60~120分钟</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一场战斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟着引导员，打第一场引导关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵夏玲和曹焱兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小试牛刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵秘术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹焱兵加入队伍，快帮曹焱兵召唤出他的守护灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉技能释放，打败曹焱兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2关</t>
-  </si>
-  <si>
-    <t>通关1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过1-3关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵界精华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>告诉玩家，让守护灵吸收灵界精华，可以提升能力，引导玩家守护灵升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级(后)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次通灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魄换技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次引导玩家抽奖，保底掉落于禁，自动分解成于禁精魄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导玩家使用于禁精魄，兑换插槽技能，并安到于禁身上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-4关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过1-4关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破的力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再试牛刀1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏玲觉醒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次引导抽奖，抽出李轩辕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过1-5，体验到红水晶不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>引导于禁突破，激活天赋技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-把李轩辕突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把李轩辕突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过1-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-7关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过1-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把队伍派遣到挂机1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机派遣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果把李轩辕升级到5，并突破就可以解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机1-3</t>
-  </si>
-  <si>
-    <t>挂机1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机点1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要把唐流雨也突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-唐流雨突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行一次牧守令扫荡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧守令扫荡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把唐流雨突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁挂机关卡1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-演练</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有卡牌升级到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活挂机关卡1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-1。战力要求3个5级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-2。战力要求3个6级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3关</t>
-  </si>
-  <si>
-    <t>2-4关</t>
-  </si>
-  <si>
-    <t>2-5关</t>
-  </si>
-  <si>
-    <t>2-6关</t>
-  </si>
-  <si>
-    <t>2-7关</t>
-  </si>
-  <si>
-    <t>2-8关</t>
-  </si>
-  <si>
-    <t>2-9关</t>
-  </si>
-  <si>
-    <t>通过关卡2-3。战力要求3个8级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。战力要求3个9级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。战力要求3个10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。战力要求3个11级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。战力要求3个12级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。战力要求3个15级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KN1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用第二次整体突破，引导玩家进行第二次突破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-所有守护灵2突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有守护灵2突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KN1-2</t>
-  </si>
-  <si>
-    <t>KN1-3</t>
-  </si>
-  <si>
-    <t>KN1-4</t>
-  </si>
-  <si>
-    <t>KN1-5</t>
-  </si>
-  <si>
-    <t>KN1-6</t>
-  </si>
-  <si>
-    <t>通关2-3</t>
-  </si>
-  <si>
-    <t>通关2-4</t>
-  </si>
-  <si>
-    <t>通关2-5</t>
-  </si>
-  <si>
-    <t>通关2-6</t>
-  </si>
-  <si>
-    <t>通关2-7</t>
-  </si>
-  <si>
-    <t>通关2-8</t>
-  </si>
-  <si>
-    <t>战力要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁神器1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1通关困难1章；#2通关普通2章；#3张卡15级；1张卡2突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过关卡2-4。战力要求3个15级，1张卡2突破。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过2-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-通关困难1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-通关困难1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-通关困难1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-通关困难1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-通关困难1-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个11级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个12级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个13级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个14级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力要求3个15级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-等级升级到20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机关2章和困难2章都要求玩家到20级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过风1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过风2</t>
-  </si>
-  <si>
-    <t>通过风3</t>
-  </si>
-  <si>
-    <t>通过风4</t>
-  </si>
-  <si>
-    <t>购买神器宝箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线-把神器1升级到2级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tw-f-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tw-f-2</t>
-  </si>
-  <si>
-    <t>tw-f-3</t>
-  </si>
-  <si>
-    <t>tw-f-4</t>
-  </si>
-  <si>
-    <t>这个时候玩家可以有3件事做，打困难第二关，第二章挂机关卡，芦花古楼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2289,7 +1811,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2361,6 +1883,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2406,20 +1952,14 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2427,6 +1967,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2436,20 +1991,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="12">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2460,15 +2003,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2481,9 +2015,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="29" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="30" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2492,21 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="32" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="12">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2574,35 +2090,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="文档说明"/>
-      <sheetName val="价值概述"/>
-      <sheetName val="游戏节奏概述"/>
-      <sheetName val="游戏节奏"/>
-      <sheetName val="关键兴奋点设计"/>
-      <sheetName val="属性表"/>
-      <sheetName val="军阶数值"/>
-      <sheetName val="突破数值备份"/>
-      <sheetName val="关卡思路"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2886,12 +2373,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2900,10 +2387,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2914,26 +2401,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2942,10 +2429,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2954,10 +2441,10 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -2966,145 +2453,141 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -3117,12 +2600,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -3150,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3167,15 +2654,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3205,7 +2692,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="58" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -3227,7 +2714,7 @@
       <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="18" t="s">
         <v>96</v>
       </c>
@@ -3245,7 +2732,7 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="21" t="s">
         <v>99</v>
       </c>
@@ -3267,7 +2754,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="58" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -3285,7 +2772,7 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
@@ -3301,7 +2788,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="22" t="s">
         <v>126</v>
       </c>
@@ -3315,7 +2802,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
@@ -3337,7 +2824,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="14" t="s">
         <v>169</v>
       </c>
@@ -3355,7 +2842,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="19" t="s">
         <v>170</v>
       </c>
@@ -3373,7 +2860,7 @@
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="18" t="s">
         <v>165</v>
       </c>
@@ -3395,7 +2882,7 @@
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="54" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -3419,7 +2906,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="14" t="s">
         <v>29</v>
       </c>
@@ -3443,7 +2930,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
@@ -3463,7 +2950,7 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="59" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -3479,7 +2966,7 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="18" t="s">
         <v>117</v>
       </c>
@@ -3499,7 +2986,7 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="18" t="s">
         <v>87</v>
       </c>
@@ -3521,7 +3008,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="18" t="s">
         <v>86</v>
       </c>
@@ -3537,7 +3024,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3563,7 +3050,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="14" t="s">
         <v>141</v>
       </c>
@@ -3585,7 +3072,7 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
@@ -3607,7 +3094,7 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -3631,7 +3118,7 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="14" t="s">
         <v>60</v>
       </c>
@@ -3653,7 +3140,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
@@ -3671,15 +3158,15 @@
       <c r="H26" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
@@ -3698,16 +3185,16 @@
       <c r="E30" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -3722,14 +3209,14 @@
       <c r="E31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="G31" s="54"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="14" t="s">
         <v>65</v>
       </c>
@@ -3742,14 +3229,14 @@
       <c r="E32" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="14" t="s">
         <v>66</v>
       </c>
@@ -3762,10 +3249,10 @@
       <c r="E33" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G33" s="54"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,10 +3271,10 @@
       <c r="E34" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G34" s="54"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3804,10 +3291,10 @@
       <c r="E35" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="54"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,10 +3309,10 @@
       <c r="E36" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="54"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="18" t="s">
         <v>188</v>
       </c>
@@ -3844,16 +3331,16 @@
       <c r="E37" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="54"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="48" t="s">
         <v>192</v>
       </c>
       <c r="B38" s="24" t="s">
@@ -3868,12 +3355,12 @@
       <c r="E38" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="24" t="s">
         <v>194</v>
       </c>
@@ -3889,7 +3376,7 @@
       <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="24" t="s">
         <v>195</v>
       </c>
@@ -3905,7 +3392,7 @@
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="24" t="s">
         <v>200</v>
       </c>
@@ -3921,7 +3408,7 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="24" t="s">
         <v>196</v>
       </c>
@@ -3938,6 +3425,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="A2:G2"/>
@@ -3954,9 +3444,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,240 +3498,240 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65" t="s">
+      <c r="M4" s="61"/>
+      <c r="N4" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65" t="s">
+      <c r="O4" s="61"/>
+      <c r="P4" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65" t="s">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65" t="s">
+      <c r="S4" s="61"/>
+      <c r="T4" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65" t="s">
+      <c r="U4" s="61"/>
+      <c r="V4" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65" t="s">
+      <c r="W4" s="61"/>
+      <c r="X4" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65" t="s">
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65" t="s">
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65" t="s">
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65" t="s">
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65" t="s">
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65" t="s">
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65" t="s">
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65" t="s">
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65" t="s">
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65" t="s">
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65" t="s">
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65" t="s">
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="AW4" s="65"/>
+      <c r="AW4" s="61"/>
     </row>
     <row r="5" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="69" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="V5" s="69" t="s">
+      <c r="V5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="W5" s="69" t="s">
+      <c r="W5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Y5" s="69" t="s">
+      <c r="Y5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="Z5" s="69" t="s">
+      <c r="Z5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AA5" s="69" t="s">
+      <c r="AA5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AB5" s="69" t="s">
+      <c r="AB5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AC5" s="69" t="s">
+      <c r="AC5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AD5" s="69" t="s">
+      <c r="AD5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AE5" s="69" t="s">
+      <c r="AE5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AF5" s="69" t="s">
+      <c r="AF5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AG5" s="69" t="s">
+      <c r="AG5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AH5" s="69" t="s">
+      <c r="AH5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AI5" s="69" t="s">
+      <c r="AI5" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="AJ5" s="69" t="s">
+      <c r="AJ5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AK5" s="69" t="s">
+      <c r="AK5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AL5" s="69" t="s">
+      <c r="AL5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AM5" s="69" t="s">
+      <c r="AM5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AN5" s="69" t="s">
+      <c r="AN5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AO5" s="69" t="s">
+      <c r="AO5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AP5" s="69" t="s">
+      <c r="AP5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AQ5" s="69" t="s">
+      <c r="AQ5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AR5" s="69" t="s">
+      <c r="AR5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AS5" s="69" t="s">
+      <c r="AS5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AT5" s="69" t="s">
+      <c r="AT5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AU5" s="69" t="s">
+      <c r="AU5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="AV5" s="69" t="s">
+      <c r="AV5" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AW5" s="69" t="s">
+      <c r="AW5" s="25" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="62" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -4330,8 +3817,8 @@
       <c r="AW6" s="24"/>
     </row>
     <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="24" t="s">
         <v>106</v>
       </c>
@@ -4385,8 +3872,8 @@
       <c r="AW7" s="24"/>
     </row>
     <row r="8" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="24" t="s">
         <v>34</v>
       </c>
@@ -4442,8 +3929,8 @@
       <c r="AW8" s="24"/>
     </row>
     <row r="9" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="57"/>
-      <c r="D9" s="70" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="26" t="s">
         <v>126</v>
       </c>
       <c r="E9" s="24" t="s">
@@ -4501,7 +3988,7 @@
       <c r="AW9" s="24"/>
     </row>
     <row r="10" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -4554,7 +4041,7 @@
       <c r="AW10" s="24"/>
     </row>
     <row r="11" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="54"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="24" t="s">
         <v>247</v>
       </c>
@@ -4605,7 +4092,7 @@
       <c r="AW11" s="24"/>
     </row>
     <row r="12" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="54"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="24" t="s">
         <v>248</v>
       </c>
@@ -4656,7 +4143,7 @@
       <c r="AW12" s="24"/>
     </row>
     <row r="13" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="54"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="24" t="s">
         <v>249</v>
       </c>
@@ -4707,7 +4194,7 @@
       <c r="AW13" s="24"/>
     </row>
     <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="54"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="24" t="s">
         <v>250</v>
       </c>
@@ -4758,7 +4245,7 @@
       <c r="AW14" s="24"/>
     </row>
     <row r="15" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="54"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="24" t="s">
         <v>251</v>
       </c>
@@ -4809,7 +4296,7 @@
       <c r="AW15" s="24"/>
     </row>
     <row r="16" spans="1:49" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="62" t="s">
         <v>252</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -4862,7 +4349,7 @@
       <c r="AW16" s="24"/>
     </row>
     <row r="17" spans="3:50" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="56"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="24" t="s">
         <v>254</v>
       </c>
@@ -4913,7 +4400,7 @@
       <c r="AW17" s="24"/>
     </row>
     <row r="18" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="56"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="24" t="s">
         <v>255</v>
       </c>
@@ -4964,7 +4451,7 @@
       <c r="AW18" s="24"/>
     </row>
     <row r="19" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="56"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="24" t="s">
         <v>256</v>
       </c>
@@ -5015,7 +4502,7 @@
       <c r="AW19" s="24"/>
     </row>
     <row r="20" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="56"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="24" t="s">
         <v>257</v>
       </c>
@@ -5066,7 +4553,7 @@
       <c r="AW20" s="24"/>
     </row>
     <row r="21" spans="3:50" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="57"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="24" t="s">
         <v>258</v>
       </c>
@@ -5118,7 +4605,7 @@
       <c r="AX21" s="24"/>
     </row>
     <row r="22" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="27" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -5169,7 +4656,7 @@
       <c r="AW22" s="24"/>
     </row>
     <row r="23" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="27" t="s">
         <v>260</v>
       </c>
       <c r="D23" s="24"/>
@@ -5220,7 +4707,7 @@
       <c r="AW23" s="24"/>
     </row>
     <row r="24" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="57" t="s">
         <v>261</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -5273,7 +4760,7 @@
       <c r="AW24" s="24"/>
     </row>
     <row r="25" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="54"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="24" t="s">
         <v>263</v>
       </c>
@@ -5324,7 +4811,7 @@
       <c r="AW25" s="24"/>
     </row>
     <row r="26" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="54"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="24" t="s">
         <v>264</v>
       </c>
@@ -5375,7 +4862,7 @@
       <c r="AW26" s="24"/>
     </row>
     <row r="27" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="57" t="s">
         <v>265</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -5428,7 +4915,7 @@
       <c r="AW27" s="24"/>
     </row>
     <row r="28" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="54"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="24" t="s">
         <v>266</v>
       </c>
@@ -5479,7 +4966,7 @@
       <c r="AW28" s="24"/>
     </row>
     <row r="29" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="54"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="24" t="s">
         <v>264</v>
       </c>
@@ -5530,7 +5017,7 @@
       <c r="AW29" s="24"/>
     </row>
     <row r="30" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="57" t="s">
         <v>267</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -5583,7 +5070,7 @@
       <c r="AW30" s="24"/>
     </row>
     <row r="31" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="54"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="24" t="s">
         <v>263</v>
       </c>
@@ -5634,7 +5121,7 @@
       <c r="AW31" s="24"/>
     </row>
     <row r="32" spans="3:50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="54"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="24" t="s">
         <v>264</v>
       </c>
@@ -5685,7 +5172,7 @@
       <c r="AW32" s="24"/>
     </row>
     <row r="33" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="54"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="24" t="s">
         <v>268</v>
       </c>
@@ -5736,7 +5223,7 @@
       <c r="AW33" s="24"/>
     </row>
     <row r="34" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="54"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="24" t="s">
         <v>269</v>
       </c>
@@ -5787,7 +5274,7 @@
       <c r="AW34" s="24"/>
     </row>
     <row r="35" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="57" t="s">
         <v>270</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -5840,7 +5327,7 @@
       <c r="AW35" s="24"/>
     </row>
     <row r="36" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="54"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="24" t="s">
         <v>263</v>
       </c>
@@ -5891,7 +5378,7 @@
       <c r="AW36" s="24"/>
     </row>
     <row r="37" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="54"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="24" t="s">
         <v>264</v>
       </c>
@@ -5942,7 +5429,7 @@
       <c r="AW37" s="24"/>
     </row>
     <row r="38" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="54"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="24" t="s">
         <v>268</v>
       </c>
@@ -5993,7 +5480,7 @@
       <c r="AW38" s="24"/>
     </row>
     <row r="39" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="54"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="24" t="s">
         <v>269</v>
       </c>
@@ -6044,7 +5531,7 @@
       <c r="AW39" s="24"/>
     </row>
     <row r="40" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="57" t="s">
         <v>271</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -6097,7 +5584,7 @@
       <c r="AW40" s="24"/>
     </row>
     <row r="41" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="54"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="24" t="s">
         <v>263</v>
       </c>
@@ -6148,7 +5635,7 @@
       <c r="AW41" s="24"/>
     </row>
     <row r="42" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="54"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="24" t="s">
         <v>264</v>
       </c>
@@ -6199,7 +5686,7 @@
       <c r="AW42" s="24"/>
     </row>
     <row r="43" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="54"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="24" t="s">
         <v>268</v>
       </c>
@@ -6250,7 +5737,7 @@
       <c r="AW43" s="24"/>
     </row>
     <row r="44" spans="3:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="54"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="24" t="s">
         <v>269</v>
       </c>
@@ -6301,7 +5788,7 @@
       <c r="AW44" s="24"/>
     </row>
     <row r="45" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C45" s="54"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="24" t="s">
         <v>272</v>
       </c>
@@ -6352,7 +5839,7 @@
       <c r="AW45" s="24"/>
     </row>
     <row r="46" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C46" s="54"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="24" t="s">
         <v>273</v>
       </c>
@@ -6403,7 +5890,7 @@
       <c r="AW46" s="24"/>
     </row>
     <row r="47" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="57" t="s">
         <v>274</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -6456,7 +5943,7 @@
       <c r="AW47" s="24"/>
     </row>
     <row r="48" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C48" s="54"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="24" t="s">
         <v>263</v>
       </c>
@@ -6507,7 +5994,7 @@
       <c r="AW48" s="24"/>
     </row>
     <row r="49" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C49" s="54"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="24" t="s">
         <v>264</v>
       </c>
@@ -6558,7 +6045,7 @@
       <c r="AW49" s="24"/>
     </row>
     <row r="50" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C50" s="54"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="24" t="s">
         <v>268</v>
       </c>
@@ -6609,7 +6096,7 @@
       <c r="AW50" s="24"/>
     </row>
     <row r="51" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C51" s="54"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="24" t="s">
         <v>269</v>
       </c>
@@ -6660,7 +6147,7 @@
       <c r="AW51" s="24"/>
     </row>
     <row r="52" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C52" s="54"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="24" t="s">
         <v>272</v>
       </c>
@@ -6711,7 +6198,7 @@
       <c r="AW52" s="24"/>
     </row>
     <row r="53" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C53" s="54"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="24" t="s">
         <v>273</v>
       </c>
@@ -6762,7 +6249,7 @@
       <c r="AW53" s="24"/>
     </row>
     <row r="54" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="57" t="s">
         <v>275</v>
       </c>
       <c r="D54" s="24" t="s">
@@ -6815,7 +6302,7 @@
       <c r="AW54" s="24"/>
     </row>
     <row r="55" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C55" s="54"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="24" t="s">
         <v>263</v>
       </c>
@@ -6866,7 +6353,7 @@
       <c r="AW55" s="24"/>
     </row>
     <row r="56" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C56" s="54"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="24" t="s">
         <v>264</v>
       </c>
@@ -6917,7 +6404,7 @@
       <c r="AW56" s="24"/>
     </row>
     <row r="57" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C57" s="54"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="24" t="s">
         <v>268</v>
       </c>
@@ -6968,7 +6455,7 @@
       <c r="AW57" s="24"/>
     </row>
     <row r="58" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C58" s="54"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="24" t="s">
         <v>269</v>
       </c>
@@ -7019,7 +6506,7 @@
       <c r="AW58" s="24"/>
     </row>
     <row r="59" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C59" s="54"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="24" t="s">
         <v>272</v>
       </c>
@@ -7070,7 +6557,7 @@
       <c r="AW59" s="24"/>
     </row>
     <row r="60" spans="3:49" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C60" s="54"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="24" t="s">
         <v>273</v>
       </c>
@@ -7122,21 +6609,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AR4:AS4"/>
     <mergeCell ref="AT4:AU4"/>
     <mergeCell ref="AV4:AW4"/>
@@ -7146,6 +6623,11 @@
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -7155,12 +6637,17 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7169,872 +6656,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="65.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="24">
-        <v>2</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="24">
-        <v>2</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="24">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="24">
-        <v>3</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="24">
-        <v>4</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C7" s="24">
-        <v>4</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="24">
-        <v>4</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="24">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="24">
-        <v>5</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="24">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="24">
-        <v>5</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" s="24">
-        <v>6</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="C14" s="24">
-        <v>7</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="24">
-        <v>7</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="24">
-        <v>7</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17" s="24">
-        <v>7</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="24">
-        <v>7</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="24">
-        <v>8</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="24">
-        <v>8</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" s="24">
-        <v>8</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="24">
-        <v>10</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C23" s="24">
-        <v>10</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="C24" s="24">
-        <v>10</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="24">
-        <v>11</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>343</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="24">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="C26" s="24">
-        <v>11</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>347</v>
-      </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="24" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" s="24">
-        <v>12</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="24" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="24">
-        <v>12</v>
-      </c>
-      <c r="D28" s="73" t="s">
-        <v>349</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="24" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="C29" s="24">
-        <v>13</v>
-      </c>
-      <c r="D29" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C30" s="24">
-        <v>13</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>351</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="24" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="C31" s="24">
-        <v>14</v>
-      </c>
-      <c r="D31" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <v>31</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C32" s="24">
-        <v>14</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="24" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="24">
-        <v>15</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="H33" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="C34" s="24">
-        <v>15</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>365</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>34</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="C35" s="24">
-        <v>16</v>
-      </c>
-      <c r="D35" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="24" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
-        <v>35</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36" s="24">
-        <v>16</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="24">
-        <v>36</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="24">
-        <v>17</v>
-      </c>
-      <c r="D37" s="73" t="s">
-        <v>368</v>
-      </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
-        <v>37</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="C38" s="24">
-        <v>17</v>
-      </c>
-      <c r="D38" s="73" t="s">
-        <v>369</v>
-      </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
-        <v>38</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="24">
-        <v>18</v>
-      </c>
-      <c r="D39" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="24" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
-        <v>39</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="C40" s="24">
-        <v>18</v>
-      </c>
-      <c r="D40" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="24">
-        <v>40</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="24">
-        <v>20</v>
-      </c>
-      <c r="D41" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="H41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
-        <v>41</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="C42" s="24">
-        <v>18</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="H42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="24">
-        <v>42</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="C43" s="24">
-        <v>19</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
-        <v>43</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="C44" s="24">
-        <v>19</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
-        <v>44</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="C45" s="24">
-        <v>20</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
-        <v>45</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="C46" s="24">
-        <v>20</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
-        <v>46</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="24">
-        <v>20</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E33"/>
   <sheetViews>
